--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/systemtest/asapi/v3/test_files/import/import.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/systemtest/asapi/v3/test_files/import/import.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="99">
   <si>
     <t xml:space="preserve">VOCABULARY_TYPE</t>
   </si>
@@ -32,12 +32,18 @@
     <t xml:space="preserve">Code</t>
   </si>
   <si>
+    <t xml:space="preserve">Internal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Description</t>
   </si>
   <si>
     <t xml:space="preserve">DETECTION</t>
   </si>
   <si>
+    <t xml:space="preserve">FALSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Protein detection system</t>
   </si>
   <si>
@@ -107,10 +113,10 @@
     <t xml:space="preserve">Dynamic script</t>
   </si>
   <si>
+    <t xml:space="preserve">Internal Assignment</t>
+  </si>
+  <si>
     <t xml:space="preserve">FOR_WHAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FALSE</t>
   </si>
   <si>
     <t xml:space="preserve">General info</t>
@@ -364,6 +370,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -400,14 +414,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -457,7 +463,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -490,47 +496,51 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -555,17 +565,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="L26" activeCellId="0" sqref="L26:L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.3984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.83"/>
@@ -592,19 +602,31 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="0"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>225</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="0"/>
+      <c r="I3" s="1"/>
       <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
@@ -613,58 +635,81 @@
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="0"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>225</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="0"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>225</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="0"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="1"/>
+      <c r="G7" s="0"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -674,363 +719,437 @@
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>16</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>225</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="19.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
         <v>225</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>29</v>
+      <c r="B12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
         <v>225</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>29</v>
+      <c r="B13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>225</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>29</v>
+      <c r="B14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
         <v>225</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>29</v>
+      <c r="B15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <v>225</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>29</v>
+      <c r="B16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8" t="s">
+      <c r="G16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <v>225</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
         <v>225</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>29</v>
+      <c r="B18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
         <v>225</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>29</v>
+      <c r="B19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
         <v>225</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
         <v>225</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>29</v>
+      <c r="B21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
@@ -1038,14 +1157,21 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="I22" s="11"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="0"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="0"/>
+      <c r="I23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
@@ -1057,19 +1183,31 @@
       <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="0"/>
+      <c r="I24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
         <v>225</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="0"/>
+      <c r="I25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
@@ -1078,29 +1216,35 @@
       <c r="B26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>20</v>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1108,25 +1252,32 @@
         <v>225</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>29</v>
+        <v>67</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>66</v>
+        <v>6</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" s="1" t="s">
         <v>68</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,43 +1303,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="1" sqref="L26:L27 F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.3984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16383" min="16381" style="1" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="8.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1196,30 +1345,30 @@
     </row>
     <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1228,53 +1377,53 @@
     </row>
     <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="14"/>
+        <v>78</v>
+      </c>
+      <c r="C10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1284,145 +1433,145 @@
     </row>
     <row r="16" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
+        <v>85</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="16"/>
+        <v>19</v>
+      </c>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>62</v>
+        <v>90</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="35.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="19" t="s">
-        <v>90</v>
+        <v>6</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="20" t="s">
+        <v>92</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="38.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="L21" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="I22" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="I22" s="11" t="s">
-        <v>92</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1430,22 +1579,22 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="19"/>
-      <c r="J23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="20"/>
+      <c r="J23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="20"/>
-      <c r="I24" s="11"/>
+      <c r="G24" s="21"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="I25" s="11"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="3"/>
